--- a/Code/Results/Cases/Case_0_120/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_120/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03985892319791517</v>
+        <v>0.1282158811859517</v>
       </c>
       <c r="D2">
-        <v>0.02753062643191573</v>
+        <v>0.08878388640228341</v>
       </c>
       <c r="E2">
-        <v>0.02808703537007806</v>
+        <v>0.1065813741126328</v>
       </c>
       <c r="F2">
-        <v>1.413395940014212</v>
+        <v>2.118513577096095</v>
       </c>
       <c r="G2">
-        <v>0.0007852625408638662</v>
+        <v>0.002497283076363639</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.030674100875473</v>
+        <v>1.509516333546614</v>
       </c>
       <c r="J2">
-        <v>0.03505245750765695</v>
+        <v>0.1455084876916897</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.04322761994676316</v>
+        <v>0.1547937879303847</v>
       </c>
       <c r="M2">
-        <v>2.893704576675347</v>
+        <v>1.489323724784199</v>
       </c>
       <c r="N2">
-        <v>3.954585240881102</v>
+        <v>1.814412066740545</v>
       </c>
       <c r="O2">
-        <v>4.32444067440963</v>
+        <v>5.884379728857311</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0402733426227222</v>
+        <v>0.1291791960709752</v>
       </c>
       <c r="D3">
-        <v>0.02803540408723038</v>
+        <v>0.08929637871369467</v>
       </c>
       <c r="E3">
-        <v>0.02970120703021417</v>
+        <v>0.1077315201928244</v>
       </c>
       <c r="F3">
-        <v>1.292101809063595</v>
+        <v>2.106293471411519</v>
       </c>
       <c r="G3">
-        <v>0.0007915985066467162</v>
+        <v>0.002501595174405513</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9404369246969679</v>
+        <v>1.499915050636943</v>
       </c>
       <c r="J3">
-        <v>0.0378983232072263</v>
+        <v>0.1474638540712763</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0456504311866599</v>
+        <v>0.1564256208648072</v>
       </c>
       <c r="M3">
-        <v>2.530274215204955</v>
+        <v>1.37519768558542</v>
       </c>
       <c r="N3">
-        <v>3.530156106927905</v>
+        <v>1.675437757530716</v>
       </c>
       <c r="O3">
-        <v>3.923448584718756</v>
+        <v>5.834295394609342</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04059396975024399</v>
+        <v>0.1298165073425359</v>
       </c>
       <c r="D4">
-        <v>0.02836978637069087</v>
+        <v>0.08963032639650526</v>
       </c>
       <c r="E4">
-        <v>0.03074496990759712</v>
+        <v>0.1084756106854649</v>
       </c>
       <c r="F4">
-        <v>1.22038866802005</v>
+        <v>2.10001937566426</v>
       </c>
       <c r="G4">
-        <v>0.0007956126073992703</v>
+        <v>0.002504385820531424</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8870475102306514</v>
+        <v>1.494905133959001</v>
       </c>
       <c r="J4">
-        <v>0.0397435084337816</v>
+        <v>0.1487277537139693</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0472107507456867</v>
+        <v>0.1574810136276206</v>
       </c>
       <c r="M4">
-        <v>2.306917179917818</v>
+        <v>1.305026421810354</v>
       </c>
       <c r="N4">
-        <v>3.270218226943996</v>
+        <v>1.590341961381142</v>
       </c>
       <c r="O4">
-        <v>3.685570653925566</v>
+        <v>5.807067093090922</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.04074067613606402</v>
+        <v>0.1300877464390098</v>
       </c>
       <c r="D5">
-        <v>0.02851205787223465</v>
+        <v>0.08977126629515819</v>
       </c>
       <c r="E5">
-        <v>0.031183219154581</v>
+        <v>0.1087883638078747</v>
       </c>
       <c r="F5">
-        <v>1.19180446992597</v>
+        <v>2.097771241142681</v>
       </c>
       <c r="G5">
-        <v>0.0007972803662116536</v>
+        <v>0.002505559105454628</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8657572984478605</v>
+        <v>1.493085821731498</v>
       </c>
       <c r="J5">
-        <v>0.04051917869833654</v>
+        <v>0.1492587082314114</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.04786448511985419</v>
+        <v>0.1579245387751005</v>
       </c>
       <c r="M5">
-        <v>2.215830313589493</v>
+        <v>1.276409384577647</v>
       </c>
       <c r="N5">
-        <v>3.164439464411743</v>
+        <v>1.555727969744765</v>
       </c>
       <c r="O5">
-        <v>3.590554561969441</v>
+        <v>5.796855853396437</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04076598918459595</v>
+        <v>0.1301334819832221</v>
       </c>
       <c r="D6">
-        <v>0.02853604091976969</v>
+        <v>0.08979496259230402</v>
       </c>
       <c r="E6">
-        <v>0.03125676020252344</v>
+        <v>0.1088408718540131</v>
       </c>
       <c r="F6">
-        <v>1.187095167827849</v>
+        <v>2.097416566219167</v>
       </c>
       <c r="G6">
-        <v>0.0007975592518227257</v>
+        <v>0.002505756110593084</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8622491056020323</v>
+        <v>1.492797140750547</v>
       </c>
       <c r="J6">
-        <v>0.04064938799038886</v>
+        <v>0.1493478331267053</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.04797410669765156</v>
+        <v>0.157998997949246</v>
       </c>
       <c r="M6">
-        <v>2.200700971664418</v>
+        <v>1.271656321247619</v>
       </c>
       <c r="N6">
-        <v>3.146883412634224</v>
+        <v>1.549984284947584</v>
       </c>
       <c r="O6">
-        <v>3.574888362966277</v>
+        <v>5.795213662573644</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04059588406424197</v>
+        <v>0.1298201186782357</v>
       </c>
       <c r="D7">
-        <v>0.02837168094476716</v>
+        <v>0.08963220750051426</v>
       </c>
       <c r="E7">
-        <v>0.03075082845854782</v>
+        <v>0.1084797899950176</v>
       </c>
       <c r="F7">
-        <v>1.220000652394404</v>
+        <v>2.099987807596804</v>
       </c>
       <c r="G7">
-        <v>0.0007956349688391124</v>
+        <v>0.002504401497534206</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8867585463611078</v>
+        <v>1.49487969858523</v>
       </c>
       <c r="J7">
-        <v>0.03975387435850841</v>
+        <v>0.1487348499684022</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.04721949529808889</v>
+        <v>0.1574869407213599</v>
       </c>
       <c r="M7">
-        <v>2.30568903986935</v>
+        <v>1.304640566469615</v>
       </c>
       <c r="N7">
-        <v>3.268791081521414</v>
+        <v>1.589874883414069</v>
       </c>
       <c r="O7">
-        <v>3.684281677249857</v>
+        <v>5.806925801447363</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03998771549050062</v>
+        <v>0.1285385225888334</v>
       </c>
       <c r="D8">
-        <v>0.02769951301040852</v>
+        <v>0.08895659713904536</v>
       </c>
       <c r="E8">
-        <v>0.02863246874163861</v>
+        <v>0.1069700798100086</v>
       </c>
       <c r="F8">
-        <v>1.370966195434903</v>
+        <v>2.114044699569064</v>
       </c>
       <c r="G8">
-        <v>0.0007874220181558942</v>
+        <v>0.00249874027736834</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9991164337617136</v>
+        <v>1.506021847022666</v>
       </c>
       <c r="J8">
-        <v>0.03601288452567908</v>
+        <v>0.1461695541679715</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.04404767616902383</v>
+        <v>0.1553453560144487</v>
       </c>
       <c r="M8">
-        <v>2.768427866065508</v>
+        <v>1.449994935321982</v>
       </c>
       <c r="N8">
-        <v>3.808092354193377</v>
+        <v>1.766447378977404</v>
       </c>
       <c r="O8">
-        <v>4.184340488019018</v>
+        <v>5.86637834463744</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03934843232343965</v>
+        <v>0.1263887608402463</v>
       </c>
       <c r="D9">
-        <v>0.02658216170276262</v>
+        <v>0.08778436322862193</v>
       </c>
       <c r="E9">
-        <v>0.02491175256077538</v>
+        <v>0.1043101448843785</v>
       </c>
       <c r="F9">
-        <v>1.691613811933252</v>
+        <v>2.151387672161107</v>
       </c>
       <c r="G9">
-        <v>0.0007722572341648426</v>
+        <v>0.002488768041149199</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.237439454407664</v>
+        <v>1.534915181455617</v>
       </c>
       <c r="J9">
-        <v>0.02949339231014547</v>
+        <v>0.141641673551899</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.03842282265308139</v>
+        <v>0.1515694178027012</v>
       </c>
       <c r="M9">
-        <v>3.67499325567718</v>
+        <v>1.73415175492147</v>
       </c>
       <c r="N9">
-        <v>4.871928514756121</v>
+        <v>2.114407389216467</v>
       </c>
       <c r="O9">
-        <v>5.239600522426713</v>
+        <v>6.011007824062858</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03925807986654206</v>
+        <v>0.1250306052860068</v>
       </c>
       <c r="D10">
-        <v>0.02589399077578847</v>
+        <v>0.08701573927993689</v>
       </c>
       <c r="E10">
-        <v>0.02246494076548677</v>
+        <v>0.1025389602742741</v>
       </c>
       <c r="F10">
-        <v>1.946281054175017</v>
+        <v>2.184825430925684</v>
       </c>
       <c r="G10">
-        <v>0.0007616265218010167</v>
+        <v>0.00248212261082123</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.426525690884688</v>
+        <v>1.560468331020388</v>
       </c>
       <c r="J10">
-        <v>0.02526093859291989</v>
+        <v>0.1386219370140054</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.03467928873008042</v>
+        <v>0.1490530025230452</v>
       </c>
       <c r="M10">
-        <v>4.341862963748767</v>
+        <v>1.942256951500383</v>
       </c>
       <c r="N10">
-        <v>5.658983841740735</v>
+        <v>2.370901038614818</v>
       </c>
       <c r="O10">
-        <v>6.073385370423011</v>
+        <v>6.134501091156494</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03930946771498256</v>
+        <v>0.124460733829693</v>
       </c>
       <c r="D11">
-        <v>0.02561235569495324</v>
+        <v>0.08668609057558818</v>
       </c>
       <c r="E11">
-        <v>0.02141942667348817</v>
+        <v>0.1017729132946903</v>
       </c>
       <c r="F11">
-        <v>2.067291597525553</v>
+        <v>2.201349785146888</v>
       </c>
       <c r="G11">
-        <v>0.0007568859129827482</v>
+        <v>0.00247924577941853</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.51633193179795</v>
+        <v>1.573039404167503</v>
       </c>
       <c r="J11">
-        <v>0.02347084849171766</v>
+        <v>0.1373149188129448</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.03306690507348087</v>
+        <v>0.1479640768273143</v>
       </c>
       <c r="M11">
-        <v>4.645772236759257</v>
+        <v>2.036759658221371</v>
       </c>
       <c r="N11">
-        <v>6.018632462410778</v>
+        <v>2.487732864659222</v>
       </c>
       <c r="O11">
-        <v>6.468611081631821</v>
+        <v>6.194454942899995</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03934314956400442</v>
+        <v>0.1242518312997234</v>
       </c>
       <c r="D12">
-        <v>0.02551047417719055</v>
+        <v>0.08656413082183256</v>
       </c>
       <c r="E12">
-        <v>0.02103371410848842</v>
+        <v>0.1014885353823209</v>
       </c>
       <c r="F12">
-        <v>2.113950958627697</v>
+        <v>2.207796635472619</v>
       </c>
       <c r="G12">
-        <v>0.0007551030767285472</v>
+        <v>0.002478177303627155</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.550953524358547</v>
+        <v>1.577936385353112</v>
       </c>
       <c r="J12">
-        <v>0.0228137539747566</v>
+        <v>0.1368295853630683</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.03246991902323249</v>
+        <v>0.1475597477616652</v>
       </c>
       <c r="M12">
-        <v>4.760966391823473</v>
+        <v>2.07251904454148</v>
       </c>
       <c r="N12">
-        <v>6.155090429638904</v>
+        <v>2.531992182504212</v>
       </c>
       <c r="O12">
-        <v>6.620862118692003</v>
+        <v>6.217703074897713</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03933524751573714</v>
+        <v>0.1242965155404434</v>
       </c>
       <c r="D13">
-        <v>0.02553219985345745</v>
+        <v>0.08659026942862491</v>
       </c>
       <c r="E13">
-        <v>0.02111632241115002</v>
+        <v>0.1015495273742395</v>
       </c>
       <c r="F13">
-        <v>2.103863296109822</v>
+        <v>2.206399756413219</v>
       </c>
       <c r="G13">
-        <v>0.0007554865175617934</v>
+        <v>0.002478406490543528</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.54346866800131</v>
+        <v>1.576875651001501</v>
       </c>
       <c r="J13">
-        <v>0.02295432491927252</v>
+        <v>0.1369336830848487</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.03259787690454541</v>
+        <v>0.1476464704309883</v>
       </c>
       <c r="M13">
-        <v>4.736151811597068</v>
+        <v>2.064818856875831</v>
       </c>
       <c r="N13">
-        <v>6.125689305054266</v>
+        <v>2.522459427520289</v>
       </c>
       <c r="O13">
-        <v>6.587951999670679</v>
+        <v>6.212671908155016</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03931194814476058</v>
+        <v>0.1244434091049733</v>
       </c>
       <c r="D14">
-        <v>0.02560387675689224</v>
+        <v>0.08667599936223347</v>
       </c>
       <c r="E14">
-        <v>0.02138748651907507</v>
+        <v>0.1017494029526871</v>
       </c>
       <c r="F14">
-        <v>2.071112983618704</v>
+        <v>2.201876371490528</v>
       </c>
       <c r="G14">
-        <v>0.0007567389992585988</v>
+        <v>0.002479157456697927</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.519167547453478</v>
+        <v>1.573439541795125</v>
       </c>
       <c r="J14">
-        <v>0.02341636464005226</v>
+        <v>0.1372747975150697</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.03301751496885874</v>
+        <v>0.147930651635475</v>
       </c>
       <c r="M14">
-        <v>4.655246921297461</v>
+        <v>2.039702157171973</v>
       </c>
       <c r="N14">
-        <v>6.029853381672297</v>
+        <v>2.491373775439115</v>
       </c>
       <c r="O14">
-        <v>6.481083199154568</v>
+        <v>6.196356648932408</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03929955746866298</v>
+        <v>0.1245342836089947</v>
       </c>
       <c r="D15">
-        <v>0.02564840971910165</v>
+        <v>0.08672888516428756</v>
       </c>
       <c r="E15">
-        <v>0.02155492584460372</v>
+        <v>0.101872575867525</v>
       </c>
       <c r="F15">
-        <v>2.05116417592825</v>
+        <v>2.199130355036942</v>
       </c>
       <c r="G15">
-        <v>0.0007575077428256971</v>
+        <v>0.002479620165885882</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.504364524355296</v>
+        <v>1.571352626624503</v>
       </c>
       <c r="J15">
-        <v>0.02370212371736979</v>
+        <v>0.1374849914780718</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.03327634243185074</v>
+        <v>0.1481057656902429</v>
       </c>
       <c r="M15">
-        <v>4.605705720505981</v>
+        <v>2.024313883985684</v>
       </c>
       <c r="N15">
-        <v>5.971186955165194</v>
+        <v>2.472335090904153</v>
       </c>
       <c r="O15">
-        <v>6.415969276847534</v>
+        <v>6.186434101739337</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03925665982015047</v>
+        <v>0.1250688127057487</v>
       </c>
       <c r="D16">
-        <v>0.0259130491936892</v>
+        <v>0.08703768464527739</v>
       </c>
       <c r="E16">
-        <v>0.02253466778530522</v>
+        <v>0.1025898217884214</v>
       </c>
       <c r="F16">
-        <v>1.938484336828481</v>
+        <v>2.183772002723828</v>
       </c>
       <c r="G16">
-        <v>0.0007619381354054938</v>
+        <v>0.002482313551772035</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.42073864176713</v>
+        <v>1.559665871492726</v>
       </c>
       <c r="J16">
-        <v>0.02538075781741389</v>
+        <v>0.1387086969496163</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.03478653174762325</v>
+        <v>0.1491252892031003</v>
       </c>
       <c r="M16">
-        <v>4.322015391230664</v>
+        <v>1.936077396231639</v>
       </c>
       <c r="N16">
-        <v>5.635515323142954</v>
+        <v>2.363268497672323</v>
       </c>
       <c r="O16">
-        <v>6.047901720482344</v>
+        <v>6.130659113964271</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.03925466523085319</v>
+        <v>0.1254090118869549</v>
       </c>
       <c r="D17">
-        <v>0.0260836125921724</v>
+        <v>0.08723224242506333</v>
       </c>
       <c r="E17">
-        <v>0.02315334590422491</v>
+        <v>0.1030399920299537</v>
       </c>
       <c r="F17">
-        <v>1.87074419255481</v>
+        <v>2.174686940557933</v>
       </c>
       <c r="G17">
-        <v>0.000764679517799676</v>
+        <v>0.002484003227720133</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.370454486786358</v>
+        <v>1.552739238071879</v>
       </c>
       <c r="J17">
-        <v>0.02644609987450086</v>
+        <v>0.1394764905791259</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.03573657160180321</v>
+        <v>0.1497650258105967</v>
       </c>
       <c r="M17">
-        <v>4.148141819612547</v>
+        <v>1.881902699558992</v>
       </c>
       <c r="N17">
-        <v>5.430028570890045</v>
+        <v>2.296395524080367</v>
       </c>
       <c r="O17">
-        <v>5.826386715649278</v>
+        <v>6.097411475327362</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.03926216405688621</v>
+        <v>0.1256091997782995</v>
       </c>
       <c r="D18">
-        <v>0.02618465675890125</v>
+        <v>0.08734602992374896</v>
       </c>
       <c r="E18">
-        <v>0.02351552058129502</v>
+        <v>0.1033026521831952</v>
       </c>
       <c r="F18">
-        <v>1.832261547556627</v>
+        <v>2.169585036895199</v>
       </c>
       <c r="G18">
-        <v>0.0007662653539071441</v>
+        <v>0.00248498885255467</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.341884587170497</v>
+        <v>1.548844314225406</v>
       </c>
       <c r="J18">
-        <v>0.02707150401061509</v>
+        <v>0.1399243798450573</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.03629149828177081</v>
+        <v>0.1501382380038088</v>
       </c>
       <c r="M18">
-        <v>4.048183674162345</v>
+        <v>1.850727454841788</v>
       </c>
       <c r="N18">
-        <v>5.311987581099061</v>
+        <v>2.257946470643219</v>
       </c>
       <c r="O18">
-        <v>5.700457385422737</v>
+        <v>6.078643626572671</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.03926616110802783</v>
+        <v>0.1256777553358681</v>
       </c>
       <c r="D19">
-        <v>0.02621936647703915</v>
+        <v>0.08738487998541267</v>
       </c>
       <c r="E19">
-        <v>0.02363921913048317</v>
+        <v>0.1033922256667504</v>
       </c>
       <c r="F19">
-        <v>1.81931168434825</v>
+        <v>2.167878828100498</v>
       </c>
       <c r="G19">
-        <v>0.0007668038877970366</v>
+        <v>0.002485324936607205</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.332269813833562</v>
+        <v>1.547540848396579</v>
       </c>
       <c r="J19">
-        <v>0.02728538877503617</v>
+        <v>0.1400771045855687</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.03648082825948862</v>
+        <v>0.1502655034178204</v>
       </c>
       <c r="M19">
-        <v>4.014347141938501</v>
+        <v>1.840169499412497</v>
       </c>
       <c r="N19">
-        <v>5.272045609295958</v>
+        <v>2.244930901807322</v>
       </c>
       <c r="O19">
-        <v>5.658065555324583</v>
+        <v>6.072350123185345</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.03925397628178118</v>
+        <v>0.1253723298976439</v>
       </c>
       <c r="D20">
-        <v>0.02606514976632823</v>
+        <v>0.08721133657027824</v>
       </c>
       <c r="E20">
-        <v>0.02308682827896469</v>
+        <v>0.1029916841538812</v>
       </c>
       <c r="F20">
-        <v>1.877904954789969</v>
+        <v>2.175641266348222</v>
       </c>
       <c r="G20">
-        <v>0.0007643867643232824</v>
+        <v>0.002483821934739306</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.375770390389633</v>
+        <v>1.553467366159353</v>
       </c>
       <c r="J20">
-        <v>0.02633137418319786</v>
+        <v>0.1393941081021914</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.03563455569218998</v>
+        <v>0.1496963811407301</v>
       </c>
       <c r="M20">
-        <v>4.166645636652405</v>
+        <v>1.887671302993695</v>
       </c>
       <c r="N20">
-        <v>5.451887266334438</v>
+        <v>2.30351279459552</v>
       </c>
       <c r="O20">
-        <v>5.849812113390954</v>
+        <v>6.100913955973624</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03931839800929282</v>
+        <v>0.1244000757734689</v>
       </c>
       <c r="D21">
-        <v>0.02558269198584373</v>
+        <v>0.08665074052422028</v>
       </c>
       <c r="E21">
-        <v>0.02130755815120045</v>
+        <v>0.101690539732038</v>
       </c>
       <c r="F21">
-        <v>2.080709085509014</v>
+        <v>2.203199853413224</v>
       </c>
       <c r="G21">
-        <v>0.0007563707920722173</v>
+        <v>0.002478936312774372</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.52628812994125</v>
+        <v>1.574445099875007</v>
       </c>
       <c r="J21">
-        <v>0.02328007751337569</v>
+        <v>0.1371743430889047</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.0328938836212096</v>
+        <v>0.1478469629802444</v>
       </c>
       <c r="M21">
-        <v>4.679007380599771</v>
+        <v>2.04708028981338</v>
       </c>
       <c r="N21">
-        <v>6.057995178555984</v>
+        <v>2.500503939066562</v>
       </c>
       <c r="O21">
-        <v>6.512400414402919</v>
+        <v>6.201134032083473</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03944388538501187</v>
+        <v>0.1238048428051641</v>
       </c>
       <c r="D22">
-        <v>0.02529530489147724</v>
+        <v>0.08630109092154825</v>
       </c>
       <c r="E22">
-        <v>0.02020441163617026</v>
+        <v>0.1008734352113634</v>
       </c>
       <c r="F22">
-        <v>2.218172283282328</v>
+        <v>2.222315434104658</v>
       </c>
       <c r="G22">
-        <v>0.0007512030148837056</v>
+        <v>0.002475865153594371</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.628275754938628</v>
+        <v>1.588951610996958</v>
       </c>
       <c r="J22">
-        <v>0.02140765713464599</v>
+        <v>0.1357795978976215</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.03118219007350298</v>
+        <v>0.1466850277778882</v>
       </c>
       <c r="M22">
-        <v>5.01452635082569</v>
+        <v>2.151106073123856</v>
       </c>
       <c r="N22">
-        <v>6.455695774568596</v>
+        <v>2.629349973736907</v>
       </c>
       <c r="O22">
-        <v>6.960683131745611</v>
+        <v>6.269810693701857</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03936895545633945</v>
+        <v>0.1241188527117423</v>
       </c>
       <c r="D23">
-        <v>0.02544604307385168</v>
+        <v>0.08648617620309684</v>
       </c>
       <c r="E23">
-        <v>0.02078754854636622</v>
+        <v>0.1013064943803852</v>
       </c>
       <c r="F23">
-        <v>2.144322208070264</v>
+        <v>2.212011838959157</v>
       </c>
       <c r="G23">
-        <v>0.0007539551397214115</v>
+        <v>0.002477493172220034</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.573487568635784</v>
+        <v>1.581136201177387</v>
       </c>
       <c r="J23">
-        <v>0.02239539506187693</v>
+        <v>0.1365188696318986</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.03208828305940781</v>
+        <v>0.1473008956557766</v>
       </c>
       <c r="M23">
-        <v>4.835381439093084</v>
+        <v>2.095600910027997</v>
       </c>
       <c r="N23">
-        <v>6.243279029535813</v>
+        <v>2.56057454390276</v>
       </c>
       <c r="O23">
-        <v>6.719925377465245</v>
+        <v>6.232865332144684</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.03925426089515227</v>
+        <v>0.1253888994876</v>
       </c>
       <c r="D24">
-        <v>0.02607348753080974</v>
+        <v>0.08722078208362927</v>
       </c>
       <c r="E24">
-        <v>0.02311688072391571</v>
+        <v>0.1030135121486409</v>
       </c>
       <c r="F24">
-        <v>1.874666141873718</v>
+        <v>2.17520943811391</v>
       </c>
       <c r="G24">
-        <v>0.0007645190876509512</v>
+        <v>0.002483903852892531</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.37336601917751</v>
+        <v>1.553137907583718</v>
       </c>
       <c r="J24">
-        <v>0.02638320150899665</v>
+        <v>0.1394313330538697</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.03568064991617348</v>
+        <v>0.149727398515795</v>
       </c>
       <c r="M24">
-        <v>4.158280050574518</v>
+        <v>1.885063409008268</v>
       </c>
       <c r="N24">
-        <v>5.442004653445167</v>
+        <v>2.300295085279402</v>
       </c>
       <c r="O24">
-        <v>5.839217082039966</v>
+        <v>6.099329404796322</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03945798336449613</v>
+        <v>0.1269314495910727</v>
       </c>
       <c r="D25">
-        <v>0.02686193419111227</v>
+        <v>0.08808518794043918</v>
       </c>
       <c r="E25">
-        <v>0.02586965665302565</v>
+        <v>0.1049975657000375</v>
       </c>
       <c r="F25">
-        <v>1.601835688847729</v>
+        <v>2.140234422425578</v>
       </c>
       <c r="G25">
-        <v>0.0007762651573851781</v>
+        <v>0.002491345646585021</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.170744793771647</v>
+        <v>1.526341490042796</v>
       </c>
       <c r="J25">
-        <v>0.03116376936446663</v>
+        <v>0.1428127252156757</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.03987816658097554</v>
+        <v>0.1525456046951472</v>
       </c>
       <c r="M25">
-        <v>3.429707637120956</v>
+        <v>1.657387476139931</v>
       </c>
       <c r="N25">
-        <v>4.583302745377466</v>
+        <v>2.020112649522616</v>
       </c>
       <c r="O25">
-        <v>4.944863008417656</v>
+        <v>5.968865299716242</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_120/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_120/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1282158811859517</v>
+        <v>0.0398589231977482</v>
       </c>
       <c r="D2">
-        <v>0.08878388640228341</v>
+        <v>0.0275306264319104</v>
       </c>
       <c r="E2">
-        <v>0.1065813741126328</v>
+        <v>0.02808703537008161</v>
       </c>
       <c r="F2">
-        <v>2.118513577096095</v>
+        <v>1.413395940014212</v>
       </c>
       <c r="G2">
-        <v>0.002497283076363639</v>
+        <v>0.0007852625408228005</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.509516333546614</v>
+        <v>1.030674100875501</v>
       </c>
       <c r="J2">
-        <v>0.1455084876916897</v>
+        <v>0.03505245750772024</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1547937879303847</v>
+        <v>0.04322761994670721</v>
       </c>
       <c r="M2">
-        <v>1.489323724784199</v>
+        <v>2.893704576675376</v>
       </c>
       <c r="N2">
-        <v>1.814412066740545</v>
+        <v>3.954585240881102</v>
       </c>
       <c r="O2">
-        <v>5.884379728857311</v>
+        <v>4.32444067440963</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1291791960709752</v>
+        <v>0.04027334262256232</v>
       </c>
       <c r="D3">
-        <v>0.08929637871369467</v>
+        <v>0.02803540408714289</v>
       </c>
       <c r="E3">
-        <v>0.1077315201928244</v>
+        <v>0.0297012070302104</v>
       </c>
       <c r="F3">
-        <v>2.106293471411519</v>
+        <v>1.29210180906361</v>
       </c>
       <c r="G3">
-        <v>0.002501595174405513</v>
+        <v>0.0007915985066840453</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.499915050636943</v>
+        <v>0.9404369246969821</v>
       </c>
       <c r="J3">
-        <v>0.1474638540712763</v>
+        <v>0.03789832320729758</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1564256208648072</v>
+        <v>0.04565043118662793</v>
       </c>
       <c r="M3">
-        <v>1.37519768558542</v>
+        <v>2.530274215204983</v>
       </c>
       <c r="N3">
-        <v>1.675437757530716</v>
+        <v>3.530156106928018</v>
       </c>
       <c r="O3">
-        <v>5.834295394609342</v>
+        <v>3.923448584718813</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1298165073425359</v>
+        <v>0.04059396975063834</v>
       </c>
       <c r="D4">
-        <v>0.08963032639650526</v>
+        <v>0.02836978637073795</v>
       </c>
       <c r="E4">
-        <v>0.1084756106854649</v>
+        <v>0.03074496990761566</v>
       </c>
       <c r="F4">
-        <v>2.10001937566426</v>
+        <v>1.220388668020064</v>
       </c>
       <c r="G4">
-        <v>0.002504385820531424</v>
+        <v>0.000795612607436159</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.494905133959001</v>
+        <v>0.8870475102306585</v>
       </c>
       <c r="J4">
-        <v>0.1487277537139693</v>
+        <v>0.03974350843373675</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1574810136276206</v>
+        <v>0.04721075074569647</v>
       </c>
       <c r="M4">
-        <v>1.305026421810354</v>
+        <v>2.306917179917818</v>
       </c>
       <c r="N4">
-        <v>1.590341961381142</v>
+        <v>3.270218226943996</v>
       </c>
       <c r="O4">
-        <v>5.807067093090922</v>
+        <v>3.685570653925623</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1300877464390098</v>
+        <v>0.04074067613633048</v>
       </c>
       <c r="D5">
-        <v>0.08977126629515819</v>
+        <v>0.02851205787223687</v>
       </c>
       <c r="E5">
-        <v>0.1087883638078747</v>
+        <v>0.03118321915459654</v>
       </c>
       <c r="F5">
-        <v>2.097771241142681</v>
+        <v>1.191804469925927</v>
       </c>
       <c r="G5">
-        <v>0.002505559105454628</v>
+        <v>0.0007972803662846549</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.493085821731498</v>
+        <v>0.8657572984478463</v>
       </c>
       <c r="J5">
-        <v>0.1492587082314114</v>
+        <v>0.04051917869840005</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1579245387751005</v>
+        <v>0.04786448511975561</v>
       </c>
       <c r="M5">
-        <v>1.276409384577647</v>
+        <v>2.215830313589521</v>
       </c>
       <c r="N5">
-        <v>1.555727969744765</v>
+        <v>3.164439464411743</v>
       </c>
       <c r="O5">
-        <v>5.796855853396437</v>
+        <v>3.590554561969441</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1301334819832221</v>
+        <v>0.04076598918485885</v>
       </c>
       <c r="D6">
-        <v>0.08979496259230402</v>
+        <v>0.02853604091988426</v>
       </c>
       <c r="E6">
-        <v>0.1088408718540131</v>
+        <v>0.03125676020254164</v>
       </c>
       <c r="F6">
-        <v>2.097416566219167</v>
+        <v>1.187095167827877</v>
       </c>
       <c r="G6">
-        <v>0.002505756110593084</v>
+        <v>0.0007975592518222035</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.492797140750547</v>
+        <v>0.8622491056020323</v>
       </c>
       <c r="J6">
-        <v>0.1493478331267053</v>
+        <v>0.04064938799034867</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.157998997949246</v>
+        <v>0.04797410669755298</v>
       </c>
       <c r="M6">
-        <v>1.271656321247619</v>
+        <v>2.200700971664375</v>
       </c>
       <c r="N6">
-        <v>1.549984284947584</v>
+        <v>3.146883412634224</v>
       </c>
       <c r="O6">
-        <v>5.795213662573644</v>
+        <v>3.574888362966334</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1298201186782357</v>
+        <v>0.0405958840642775</v>
       </c>
       <c r="D7">
-        <v>0.08963220750051426</v>
+        <v>0.0283716809447716</v>
       </c>
       <c r="E7">
-        <v>0.1084797899950176</v>
+        <v>0.03075082845858357</v>
       </c>
       <c r="F7">
-        <v>2.099987807596804</v>
+        <v>1.220000652394418</v>
       </c>
       <c r="G7">
-        <v>0.002504401497534206</v>
+        <v>0.0007956349688400991</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.49487969858523</v>
+        <v>0.8867585463611078</v>
       </c>
       <c r="J7">
-        <v>0.1487348499684022</v>
+        <v>0.03975387435848665</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1574869407213599</v>
+        <v>0.0472194952981031</v>
       </c>
       <c r="M7">
-        <v>1.304640566469615</v>
+        <v>2.305689039869335</v>
       </c>
       <c r="N7">
-        <v>1.589874883414069</v>
+        <v>3.268791081521528</v>
       </c>
       <c r="O7">
-        <v>5.806925801447363</v>
+        <v>3.684281677249913</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1285385225888334</v>
+        <v>0.03998771549062496</v>
       </c>
       <c r="D8">
-        <v>0.08895659713904536</v>
+        <v>0.02769951301049733</v>
       </c>
       <c r="E8">
-        <v>0.1069700798100086</v>
+        <v>0.02863246874162761</v>
       </c>
       <c r="F8">
-        <v>2.114044699569064</v>
+        <v>1.370966195434903</v>
       </c>
       <c r="G8">
-        <v>0.00249874027736834</v>
+        <v>0.0007874220182257736</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.506021847022666</v>
+        <v>0.9991164337617136</v>
       </c>
       <c r="J8">
-        <v>0.1461695541679715</v>
+        <v>0.03601288452565199</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1553453560144487</v>
+        <v>0.04404767616907534</v>
       </c>
       <c r="M8">
-        <v>1.449994935321982</v>
+        <v>2.768427866065537</v>
       </c>
       <c r="N8">
-        <v>1.766447378977404</v>
+        <v>3.808092354193377</v>
       </c>
       <c r="O8">
-        <v>5.86637834463744</v>
+        <v>4.184340488018961</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1263887608402463</v>
+        <v>0.03934843232361729</v>
       </c>
       <c r="D9">
-        <v>0.08778436322862193</v>
+        <v>0.02658216170276528</v>
       </c>
       <c r="E9">
-        <v>0.1043101448843785</v>
+        <v>0.02491175256076739</v>
       </c>
       <c r="F9">
-        <v>2.151387672161107</v>
+        <v>1.691613811933266</v>
       </c>
       <c r="G9">
-        <v>0.002488768041149199</v>
+        <v>0.000772257234164659</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.534915181455617</v>
+        <v>1.237439454407678</v>
       </c>
       <c r="J9">
-        <v>0.141641673551899</v>
+        <v>0.02949339231010994</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1515694178027012</v>
+        <v>0.03842282265304409</v>
       </c>
       <c r="M9">
-        <v>1.73415175492147</v>
+        <v>3.674993255677208</v>
       </c>
       <c r="N9">
-        <v>2.114407389216467</v>
+        <v>4.871928514756121</v>
       </c>
       <c r="O9">
-        <v>6.011007824062858</v>
+        <v>5.239600522426827</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1250306052860068</v>
+        <v>0.03925807986694352</v>
       </c>
       <c r="D10">
-        <v>0.08701573927993689</v>
+        <v>0.02589399077578669</v>
       </c>
       <c r="E10">
-        <v>0.1025389602742741</v>
+        <v>0.02246494076550021</v>
       </c>
       <c r="F10">
-        <v>2.184825430925684</v>
+        <v>1.946281054175003</v>
       </c>
       <c r="G10">
-        <v>0.00248212261082123</v>
+        <v>0.0007616265218499119</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.560468331020388</v>
+        <v>1.426525690884702</v>
       </c>
       <c r="J10">
-        <v>0.1386219370140054</v>
+        <v>0.02526093859296985</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1490530025230452</v>
+        <v>0.03467928873002002</v>
       </c>
       <c r="M10">
-        <v>1.942256951500383</v>
+        <v>4.341862963748795</v>
       </c>
       <c r="N10">
-        <v>2.370901038614818</v>
+        <v>5.658983841740508</v>
       </c>
       <c r="O10">
-        <v>6.134501091156494</v>
+        <v>6.073385370423011</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.124460733829693</v>
+        <v>0.03930946771498611</v>
       </c>
       <c r="D11">
-        <v>0.08668609057558818</v>
+        <v>0.02561235569495057</v>
       </c>
       <c r="E11">
-        <v>0.1017729132946903</v>
+        <v>0.02141942667351282</v>
       </c>
       <c r="F11">
-        <v>2.201349785146888</v>
+        <v>2.067291597525553</v>
       </c>
       <c r="G11">
-        <v>0.00247924577941853</v>
+        <v>0.0007568859129825262</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.573039404167503</v>
+        <v>1.516331931797964</v>
       </c>
       <c r="J11">
-        <v>0.1373149188129448</v>
+        <v>0.02347084849171988</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1479640768273143</v>
+        <v>0.03306690507347732</v>
       </c>
       <c r="M11">
-        <v>2.036759658221371</v>
+        <v>4.645772236759228</v>
       </c>
       <c r="N11">
-        <v>2.487732864659222</v>
+        <v>6.018632462410665</v>
       </c>
       <c r="O11">
-        <v>6.194454942899995</v>
+        <v>6.468611081631821</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1242518312997234</v>
+        <v>0.03934314956399731</v>
       </c>
       <c r="D12">
-        <v>0.08656413082183256</v>
+        <v>0.0255104741772989</v>
       </c>
       <c r="E12">
-        <v>0.1014885353823209</v>
+        <v>0.0210337141084862</v>
       </c>
       <c r="F12">
-        <v>2.207796635472619</v>
+        <v>2.113950958627711</v>
       </c>
       <c r="G12">
-        <v>0.002478177303627155</v>
+        <v>0.0007551030767788815</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.577936385353112</v>
+        <v>1.550953524358547</v>
       </c>
       <c r="J12">
-        <v>0.1368295853630683</v>
+        <v>0.02281375397486207</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1475597477616652</v>
+        <v>0.03246991902328222</v>
       </c>
       <c r="M12">
-        <v>2.07251904454148</v>
+        <v>4.760966391823445</v>
       </c>
       <c r="N12">
-        <v>2.531992182504212</v>
+        <v>6.155090429638847</v>
       </c>
       <c r="O12">
-        <v>6.217703074897713</v>
+        <v>6.620862118692003</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1242965155404434</v>
+        <v>0.03933524751574424</v>
       </c>
       <c r="D13">
-        <v>0.08659026942862491</v>
+        <v>0.025532199853469</v>
       </c>
       <c r="E13">
-        <v>0.1015495273742395</v>
+        <v>0.02111632241112482</v>
       </c>
       <c r="F13">
-        <v>2.206399756413219</v>
+        <v>2.103863296109822</v>
       </c>
       <c r="G13">
-        <v>0.002478406490543528</v>
+        <v>0.0007554865175111923</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.576875651001501</v>
+        <v>1.543468668001324</v>
       </c>
       <c r="J13">
-        <v>0.1369336830848487</v>
+        <v>0.02295432491943572</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1476464704309883</v>
+        <v>0.03259787690449478</v>
       </c>
       <c r="M13">
-        <v>2.064818856875831</v>
+        <v>4.736151811597125</v>
       </c>
       <c r="N13">
-        <v>2.522459427520289</v>
+        <v>6.125689305054266</v>
       </c>
       <c r="O13">
-        <v>6.212671908155016</v>
+        <v>6.587951999670622</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1244434091049733</v>
+        <v>0.03931194814478545</v>
       </c>
       <c r="D14">
-        <v>0.08667599936223347</v>
+        <v>0.02560387675668707</v>
       </c>
       <c r="E14">
-        <v>0.1017494029526871</v>
+        <v>0.02138748651908862</v>
       </c>
       <c r="F14">
-        <v>2.201876371490528</v>
+        <v>2.071112983618704</v>
       </c>
       <c r="G14">
-        <v>0.002479157456697927</v>
+        <v>0.0007567389991521009</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.573439541795125</v>
+        <v>1.519167547453463</v>
       </c>
       <c r="J14">
-        <v>0.1372747975150697</v>
+        <v>0.02341636464004782</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.147930651635475</v>
+        <v>0.03301751496885785</v>
       </c>
       <c r="M14">
-        <v>2.039702157171973</v>
+        <v>4.655246921297447</v>
       </c>
       <c r="N14">
-        <v>2.491373775439115</v>
+        <v>6.029853381672297</v>
       </c>
       <c r="O14">
-        <v>6.196356648932408</v>
+        <v>6.481083199154568</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1245342836089947</v>
+        <v>0.03929955746863811</v>
       </c>
       <c r="D15">
-        <v>0.08672888516428756</v>
+        <v>0.02564840971897731</v>
       </c>
       <c r="E15">
-        <v>0.101872575867525</v>
+        <v>0.02155492584460106</v>
       </c>
       <c r="F15">
-        <v>2.199130355036942</v>
+        <v>2.051164175928236</v>
       </c>
       <c r="G15">
-        <v>0.002479620165885882</v>
+        <v>0.0007575077428184043</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.571352626624503</v>
+        <v>1.50436452435531</v>
       </c>
       <c r="J15">
-        <v>0.1374849914780718</v>
+        <v>0.02370212371735891</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1481057656902429</v>
+        <v>0.03327634243189603</v>
       </c>
       <c r="M15">
-        <v>2.024313883985684</v>
+        <v>4.605705720505995</v>
       </c>
       <c r="N15">
-        <v>2.472335090904153</v>
+        <v>5.971186955165138</v>
       </c>
       <c r="O15">
-        <v>6.186434101739337</v>
+        <v>6.415969276847534</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1250688127057487</v>
+        <v>0.03925665981993376</v>
       </c>
       <c r="D16">
-        <v>0.08703768464527739</v>
+        <v>0.0259130491935915</v>
       </c>
       <c r="E16">
-        <v>0.1025898217884214</v>
+        <v>0.02253466778530522</v>
       </c>
       <c r="F16">
-        <v>2.183772002723828</v>
+        <v>1.938484336828466</v>
       </c>
       <c r="G16">
-        <v>0.002482313551772035</v>
+        <v>0.0007619381354052833</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.559665871492726</v>
+        <v>1.420738641767144</v>
       </c>
       <c r="J16">
-        <v>0.1387086969496163</v>
+        <v>0.02538075781736393</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1491252892031003</v>
+        <v>0.03478653174751489</v>
       </c>
       <c r="M16">
-        <v>1.936077396231639</v>
+        <v>4.322015391230693</v>
       </c>
       <c r="N16">
-        <v>2.363268497672323</v>
+        <v>5.635515323142954</v>
       </c>
       <c r="O16">
-        <v>6.130659113964271</v>
+        <v>6.047901720482344</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1254090118869549</v>
+        <v>0.03925466523104149</v>
       </c>
       <c r="D17">
-        <v>0.08723224242506333</v>
+        <v>0.02608361259205694</v>
       </c>
       <c r="E17">
-        <v>0.1030399920299537</v>
+        <v>0.02315334590422291</v>
       </c>
       <c r="F17">
-        <v>2.174686940557933</v>
+        <v>1.870744192554767</v>
       </c>
       <c r="G17">
-        <v>0.002484003227720133</v>
+        <v>0.0007646795178184342</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.552739238071879</v>
+        <v>1.370454486786343</v>
       </c>
       <c r="J17">
-        <v>0.1394764905791259</v>
+        <v>0.02644609987454172</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1497650258105967</v>
+        <v>0.03573657160184673</v>
       </c>
       <c r="M17">
-        <v>1.881902699558992</v>
+        <v>4.148141819612533</v>
       </c>
       <c r="N17">
-        <v>2.296395524080367</v>
+        <v>5.430028570890045</v>
       </c>
       <c r="O17">
-        <v>6.097411475327362</v>
+        <v>5.826386715649278</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1256091997782995</v>
+        <v>0.03926216405688265</v>
       </c>
       <c r="D18">
-        <v>0.08734602992374896</v>
+        <v>0.02618465675878578</v>
       </c>
       <c r="E18">
-        <v>0.1033026521831952</v>
+        <v>0.02351552058129369</v>
       </c>
       <c r="F18">
-        <v>2.169585036895199</v>
+        <v>1.832261547556627</v>
       </c>
       <c r="G18">
-        <v>0.00248498885255467</v>
+        <v>0.0007662653539069012</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.548844314225406</v>
+        <v>1.341884587170512</v>
       </c>
       <c r="J18">
-        <v>0.1399243798450573</v>
+        <v>0.02707150401071678</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1501382380038088</v>
+        <v>0.03629149828171929</v>
       </c>
       <c r="M18">
-        <v>1.850727454841788</v>
+        <v>4.04818367416236</v>
       </c>
       <c r="N18">
-        <v>2.257946470643219</v>
+        <v>5.311987581099061</v>
       </c>
       <c r="O18">
-        <v>6.078643626572671</v>
+        <v>5.700457385422737</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1256777553358681</v>
+        <v>0.03926616110803494</v>
       </c>
       <c r="D19">
-        <v>0.08738487998541267</v>
+        <v>0.02621936647683398</v>
       </c>
       <c r="E19">
-        <v>0.1033922256667504</v>
+        <v>0.0236392191305218</v>
       </c>
       <c r="F19">
-        <v>2.167878828100498</v>
+        <v>1.81931168434825</v>
       </c>
       <c r="G19">
-        <v>0.002485324936607205</v>
+        <v>0.0007668038878449939</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.547540848396579</v>
+        <v>1.332269813833562</v>
       </c>
       <c r="J19">
-        <v>0.1400771045855687</v>
+        <v>0.02728538877499465</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1502655034178204</v>
+        <v>0.03648082825944776</v>
       </c>
       <c r="M19">
-        <v>1.840169499412497</v>
+        <v>4.014347141938472</v>
       </c>
       <c r="N19">
-        <v>2.244930901807322</v>
+        <v>5.272045609296072</v>
       </c>
       <c r="O19">
-        <v>6.072350123185345</v>
+        <v>5.658065555324583</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1253723298976439</v>
+        <v>0.03925397628158933</v>
       </c>
       <c r="D20">
-        <v>0.08721133657027824</v>
+        <v>0.02606514976621721</v>
       </c>
       <c r="E20">
-        <v>0.1029916841538812</v>
+        <v>0.02308682827896447</v>
       </c>
       <c r="F20">
-        <v>2.175641266348222</v>
+        <v>1.877904954789983</v>
       </c>
       <c r="G20">
-        <v>0.002483821934739306</v>
+        <v>0.0007643867643425878</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.553467366159353</v>
+        <v>1.375770390389647</v>
       </c>
       <c r="J20">
-        <v>0.1393941081021914</v>
+        <v>0.02633137418314613</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1496963811407301</v>
+        <v>0.03563455569213936</v>
       </c>
       <c r="M20">
-        <v>1.887671302993695</v>
+        <v>4.16664563665239</v>
       </c>
       <c r="N20">
-        <v>2.30351279459552</v>
+        <v>5.451887266334381</v>
       </c>
       <c r="O20">
-        <v>6.100913955973624</v>
+        <v>5.849812113390954</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1244000757734689</v>
+        <v>0.03931839800929282</v>
       </c>
       <c r="D21">
-        <v>0.08665074052422028</v>
+        <v>0.02558269198594321</v>
       </c>
       <c r="E21">
-        <v>0.101690539732038</v>
+        <v>0.02130755815120089</v>
       </c>
       <c r="F21">
-        <v>2.203199853413224</v>
+        <v>2.080709085509014</v>
       </c>
       <c r="G21">
-        <v>0.002478936312774372</v>
+        <v>0.0007563707920219242</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.574445099875007</v>
+        <v>1.52628812994125</v>
       </c>
       <c r="J21">
-        <v>0.1371743430889047</v>
+        <v>0.02328007751337857</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1478469629802444</v>
+        <v>0.0328938836212096</v>
       </c>
       <c r="M21">
-        <v>2.04708028981338</v>
+        <v>4.679007380599757</v>
       </c>
       <c r="N21">
-        <v>2.500503939066562</v>
+        <v>6.057995178555871</v>
       </c>
       <c r="O21">
-        <v>6.201134032083473</v>
+        <v>6.512400414402805</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1238048428051641</v>
+        <v>0.03944388538502608</v>
       </c>
       <c r="D22">
-        <v>0.08630109092154825</v>
+        <v>0.02529530489136533</v>
       </c>
       <c r="E22">
-        <v>0.1008734352113634</v>
+        <v>0.02020441163619691</v>
       </c>
       <c r="F22">
-        <v>2.222315434104658</v>
+        <v>2.218172283282343</v>
       </c>
       <c r="G22">
-        <v>0.002475865153594371</v>
+        <v>0.0007512030148845161</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.588951610996958</v>
+        <v>1.628275754938642</v>
       </c>
       <c r="J22">
-        <v>0.1357795978976215</v>
+        <v>0.02140765713470838</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1466850277778882</v>
+        <v>0.03118219007350831</v>
       </c>
       <c r="M22">
-        <v>2.151106073123856</v>
+        <v>5.014526350825662</v>
       </c>
       <c r="N22">
-        <v>2.629349973736907</v>
+        <v>6.455695774568596</v>
       </c>
       <c r="O22">
-        <v>6.269810693701857</v>
+        <v>6.960683131745554</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1241188527117423</v>
+        <v>0.03936895545612984</v>
       </c>
       <c r="D23">
-        <v>0.08648617620309684</v>
+        <v>0.02544604307384635</v>
       </c>
       <c r="E23">
-        <v>0.1013064943803852</v>
+        <v>0.02078754854636489</v>
       </c>
       <c r="F23">
-        <v>2.212011838959157</v>
+        <v>2.144322208070264</v>
       </c>
       <c r="G23">
-        <v>0.002477493172220034</v>
+        <v>0.0007539551397259617</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.581136201177387</v>
+        <v>1.573487568635784</v>
       </c>
       <c r="J23">
-        <v>0.1365188696318986</v>
+        <v>0.02239539506185961</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1473008956557766</v>
+        <v>0.03208828305950728</v>
       </c>
       <c r="M23">
-        <v>2.095600910027997</v>
+        <v>4.835381439093084</v>
       </c>
       <c r="N23">
-        <v>2.56057454390276</v>
+        <v>6.243279029535984</v>
       </c>
       <c r="O23">
-        <v>6.232865332144684</v>
+        <v>6.719925377465245</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1253888994876</v>
+        <v>0.03925426089560702</v>
       </c>
       <c r="D24">
-        <v>0.08722078208362927</v>
+        <v>0.02607348753061789</v>
       </c>
       <c r="E24">
-        <v>0.1030135121486409</v>
+        <v>0.02311688072391604</v>
       </c>
       <c r="F24">
-        <v>2.17520943811391</v>
+        <v>1.874666141873718</v>
       </c>
       <c r="G24">
-        <v>0.002483903852892531</v>
+        <v>0.0007645190876794484</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.553137907583718</v>
+        <v>1.373366019177496</v>
       </c>
       <c r="J24">
-        <v>0.1394313330538697</v>
+        <v>0.0263832015090435</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.149727398515795</v>
+        <v>0.03568064991617259</v>
       </c>
       <c r="M24">
-        <v>1.885063409008268</v>
+        <v>4.158280050574518</v>
       </c>
       <c r="N24">
-        <v>2.300295085279402</v>
+        <v>5.442004653445053</v>
       </c>
       <c r="O24">
-        <v>6.099329404796322</v>
+        <v>5.839217082039909</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1269314495910727</v>
+        <v>0.03945798336461337</v>
       </c>
       <c r="D25">
-        <v>0.08808518794043918</v>
+        <v>0.02686193419111049</v>
       </c>
       <c r="E25">
-        <v>0.1049975657000375</v>
+        <v>0.02586965665302587</v>
       </c>
       <c r="F25">
-        <v>2.140234422425578</v>
+        <v>1.601835688847743</v>
       </c>
       <c r="G25">
-        <v>0.002491345646585021</v>
+        <v>0.0007762651572972639</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.526341490042796</v>
+        <v>1.170744793771675</v>
       </c>
       <c r="J25">
-        <v>0.1428127252156757</v>
+        <v>0.031163769364563</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1525456046951472</v>
+        <v>0.03987816658086718</v>
       </c>
       <c r="M25">
-        <v>1.657387476139931</v>
+        <v>3.429707637120927</v>
       </c>
       <c r="N25">
-        <v>2.020112649522616</v>
+        <v>4.583302745377466</v>
       </c>
       <c r="O25">
-        <v>5.968865299716242</v>
+        <v>4.944863008417769</v>
       </c>
     </row>
   </sheetData>
